--- a/tpfinal2-master/src/main/resources/bd/TP-FINAL/Datos.xlsx
+++ b/tpfinal2-master/src/main/resources/bd/TP-FINAL/Datos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Nombre</t>
   </si>
@@ -74,13 +74,43 @@
   </si>
   <si>
     <t>gggg</t>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>Raul</t>
+  </si>
+  <si>
+    <t>rg@gmail.com</t>
+  </si>
+  <si>
+    <t>rrrr</t>
+  </si>
+  <si>
+    <t>Estado(Activo)</t>
+  </si>
+  <si>
+    <t>dni33333333</t>
+  </si>
+  <si>
+    <t>dni55555555</t>
+  </si>
+  <si>
+    <t>dni77777777</t>
+  </si>
+  <si>
+    <t>dni99999999</t>
+  </si>
+  <si>
+    <t>dni9999990</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,19 +125,58 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -120,9 +189,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -418,91 +493,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
